--- a/Public/doc/项目问题跟踪表_袁茹兵.xlsx
+++ b/Public/doc/项目问题跟踪表_袁茹兵.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -99,6 +99,28 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>开发</t>
+  </si>
+  <si>
+    <t>thinkPHP模版文件路径不熟悉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>较小</t>
+  </si>
+  <si>
+    <t>袁茹兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用太少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复习，改正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -707,7 +729,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -718,7 +740,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1724,17 +1746,39 @@
       <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
+      <c r="C4" s="8">
+        <v>42859</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="8">
+        <v>42859</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">

--- a/Public/doc/项目问题跟踪表_袁茹兵.xlsx
+++ b/Public/doc/项目问题跟踪表_袁茹兵.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -120,6 +120,43 @@
   </si>
   <si>
     <t>复习，改正</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多条件查询结果，翻页有BUG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>待解决</t>
+  </si>
+  <si>
+    <t>袁茹兵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>翻页时无法附带条件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不处理</t>
+  </si>
+  <si>
+    <t>导出EXCEL找不到控制器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类名称写错</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改正</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -729,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -740,7 +777,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1786,17 +1823,39 @@
       <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
+      <c r="C5" s="8">
+        <v>42863</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="8">
+        <v>42863</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -1804,17 +1863,39 @@
       <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
+      <c r="C6" s="8">
+        <v>42863</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="8">
+        <v>42863</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="N6" s="2"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
